--- a/Result/Facade/Comparison_1_1_vs_3_5.xlsx
+++ b/Result/Facade/Comparison_1_1_vs_3_5.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="D602" sqref="D602"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4122,12 +4122,6 @@
         <v>0.68769999999999998</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1048576">
-        <f>SUM(B11:B1048575)</f>
-        <v>28.337900000000001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4138,7 +4132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A586" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -4150,7 +4146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A403" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
